--- a/output/fit_clients/fit_round_355.xlsx
+++ b/output/fit_clients/fit_round_355.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2152794057.068634</v>
+        <v>1905910244.841527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08944324262351953</v>
+        <v>0.0871600617022686</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0350576734386551</v>
+        <v>0.03492988519508958</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1076397044.770981</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2010998364.321471</v>
+        <v>1629226613.989853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1182847141188949</v>
+        <v>0.1648213203963044</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0491194118750545</v>
+        <v>0.03771024659014025</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1005499223.938467</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3289550525.895631</v>
+        <v>3257920514.834451</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1024946593904385</v>
+        <v>0.1642633435181843</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02853707580545298</v>
+        <v>0.03355652755123061</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>128</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1644775226.805767</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2575194075.512191</v>
+        <v>4137668851.442395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.108191756590257</v>
+        <v>0.1032894745869476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03736723947815746</v>
+        <v>0.04193979102595762</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1287597135.742919</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2597428476.097558</v>
+        <v>2477665668.124743</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1422020612239683</v>
+        <v>0.1385072145947691</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04342972057179532</v>
+        <v>0.04746274360401785</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1298714202.996925</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3070479301.080192</v>
+        <v>2527519882.258947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07220598794456903</v>
+        <v>0.09561705441417943</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04187341836336995</v>
+        <v>0.03003170050016346</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>111</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1535239608.630023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2911039434.209893</v>
+        <v>2582580104.053131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1844389215755446</v>
+        <v>0.1678543724947688</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02557012316584134</v>
+        <v>0.02554452022371933</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>114</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1455519765.534374</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1445447678.766737</v>
+        <v>1485836186.970536</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1586023582968292</v>
+        <v>0.1399179397782348</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02384057296069167</v>
+        <v>0.02525766154935144</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>722723942.935398</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4858857999.101046</v>
+        <v>5886723594.139961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1688198498994076</v>
+        <v>0.2003522609589654</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03984305132461378</v>
+        <v>0.0389950619068169</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>149</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2429429087.931047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3690546907.400725</v>
+        <v>3225921096.632928</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1339008693407834</v>
+        <v>0.1277377670190482</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04766919465119035</v>
+        <v>0.0363411708882362</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>146</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1845273444.810499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2675426642.787495</v>
+        <v>2023297680.126577</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1826914260237701</v>
+        <v>0.1982581226168994</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03297216200252563</v>
+        <v>0.04358402951315199</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>122</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1337713309.707938</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3440445940.8082</v>
+        <v>3214568885.952862</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08385239090191675</v>
+        <v>0.08494629661809504</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02429563362586592</v>
+        <v>0.02353472324302679</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>120</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1720223053.762233</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3490181616.250409</v>
+        <v>2603658631.344188</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1489860431727721</v>
+        <v>0.1591501252457714</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0293051594005179</v>
+        <v>0.03693550742455073</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>117</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1745090807.077864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1383202212.376558</v>
+        <v>1131245609.08769</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08298776500007904</v>
+        <v>0.06965308511333555</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03307671130277078</v>
+        <v>0.04437767173948431</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>691601165.2124592</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2847130648.299549</v>
+        <v>2044342150.894469</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1137513099502647</v>
+        <v>0.09389942067563266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04533086736984721</v>
+        <v>0.03339277621579925</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>71</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1423565323.9666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3923877657.622785</v>
+        <v>4252285867.533054</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1664795565258739</v>
+        <v>0.1722384736819352</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04704188546392152</v>
+        <v>0.04457643437765006</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1961938867.192018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3553911105.972559</v>
+        <v>2693106559.43417</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1270371692728261</v>
+        <v>0.1338841672906448</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03205307127559687</v>
+        <v>0.02419855492833941</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>116</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1776955543.125696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>853120513.1286511</v>
+        <v>947842600.6293159</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1258785132615076</v>
+        <v>0.1443239810778767</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02468131909849868</v>
+        <v>0.02249029113403922</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>426560250.0644351</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2324983612.787204</v>
+        <v>2730052775.05301</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1305359394331783</v>
+        <v>0.0978720714285139</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03156685708002639</v>
+        <v>0.02655587014895217</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1162491798.143153</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1767709244.326381</v>
+        <v>2129596200.42055</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08318583710798282</v>
+        <v>0.06903161029709605</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04205256426607523</v>
+        <v>0.04270755035036709</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>883854680.341552</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3444673708.466636</v>
+        <v>2724503746.61446</v>
       </c>
       <c r="F22" t="n">
-        <v>0.110385816856927</v>
+        <v>0.1287276995422098</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04221860558645518</v>
+        <v>0.04298440537749412</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1722336889.148876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1118684230.215377</v>
+        <v>1004985801.563225</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1518020874952898</v>
+        <v>0.125838061464817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05461996107195132</v>
+        <v>0.0445403239904653</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>559342165.2933648</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3933650726.556729</v>
+        <v>3650586596.452925</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1417187758163526</v>
+        <v>0.1201784374001066</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02829679307146352</v>
+        <v>0.03731008712090483</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>103</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1966825335.743755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1112427153.691824</v>
+        <v>1184998889.377348</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07661094089383928</v>
+        <v>0.07501749516184744</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02938703257054116</v>
+        <v>0.02249741407091968</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>556213614.9923033</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>954804059.390764</v>
+        <v>1222041630.358603</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09991776035841</v>
+        <v>0.09304951439010337</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02839665022858827</v>
+        <v>0.03238555903792453</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>477401990.6977498</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3605979142.790341</v>
+        <v>4542938989.129298</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1094090395249855</v>
+        <v>0.1028246906704148</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01681198576670267</v>
+        <v>0.0247092223186327</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1802989601.15491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2793171023.673257</v>
+        <v>2761309777.992254</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1017969034279469</v>
+        <v>0.1080511417010181</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04181733767095629</v>
+        <v>0.04348909345896752</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1396585505.139632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3837330774.447749</v>
+        <v>5188145336.384197</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1249006694647014</v>
+        <v>0.1191747392226258</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03873850237142273</v>
+        <v>0.04653672292079986</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>157</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1918665415.333991</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2276597636.519034</v>
+        <v>2042468840.627449</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1301734739657325</v>
+        <v>0.1337891366730344</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02946646930117371</v>
+        <v>0.03160676892199343</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1138298887.214449</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1483185621.999268</v>
+        <v>1158696750.823652</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1014965046786137</v>
+        <v>0.07588999460716964</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04348854390093817</v>
+        <v>0.04791991492368083</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>741592695.8231244</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1615744941.380237</v>
+        <v>1606717942.451436</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08912383921803496</v>
+        <v>0.08484284858039601</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03860489079676051</v>
+        <v>0.03735574799415218</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>807872563.0291456</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1908270333.474549</v>
+        <v>2919881499.261465</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2078530327622869</v>
+        <v>0.1993459698843803</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03820100478811888</v>
+        <v>0.04634774163074715</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>954135255.3396059</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1397870601.978429</v>
+        <v>1401893859.069573</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1073118449044902</v>
+        <v>0.07856950446489169</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02362827803078612</v>
+        <v>0.02189490908550583</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>698935273.5742679</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>919104425.874079</v>
+        <v>1278138801.141426</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07510997977305803</v>
+        <v>0.07334002244694382</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0278912257430449</v>
+        <v>0.02815219638462303</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>459552249.2526156</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2893448029.960573</v>
+        <v>2891769649.465104</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1177734153018884</v>
+        <v>0.1362951776811258</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02062155171340353</v>
+        <v>0.02052468755896232</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>89</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1446724005.443066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1865539123.358329</v>
+        <v>2618903182.518922</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08692881641002326</v>
+        <v>0.09605957212623097</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02971122744183794</v>
+        <v>0.03249319458795739</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>93</v>
-      </c>
-      <c r="J37" t="n">
-        <v>932769570.5093657</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1911853256.115643</v>
+        <v>1491534236.306674</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1063853274770762</v>
+        <v>0.1197792466962015</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03085847135016154</v>
+        <v>0.02574961621473285</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>955926619.1415275</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1867835955.974257</v>
+        <v>1509412791.548108</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1369271975277653</v>
+        <v>0.1862613188566958</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0271401489473897</v>
+        <v>0.02217333506480871</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>933917992.5812322</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1297478383.249012</v>
+        <v>1647991545.336474</v>
       </c>
       <c r="F40" t="n">
-        <v>0.129135083130667</v>
+        <v>0.1247523044119772</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04603783309798948</v>
+        <v>0.04055261425384526</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>648739208.512247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2321840197.297887</v>
+        <v>2459265703.598373</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1432009400689195</v>
+        <v>0.1057348677371872</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0294869851404494</v>
+        <v>0.03683791410219097</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>90</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1160920141.377781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3693687925.973704</v>
+        <v>3338214738.42011</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1117810635557667</v>
+        <v>0.07851450521389347</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02996288122572155</v>
+        <v>0.03802242795654874</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1846843971.209317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2567391719.73184</v>
+        <v>2065641413.733048</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1821140142868736</v>
+        <v>0.1331699078753016</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01568495396811513</v>
+        <v>0.01671254377612647</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>126</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1283695901.74467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1925256738.180914</v>
+        <v>1469917613.77632</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09783038943667571</v>
+        <v>0.0945312932580461</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0323949325668309</v>
+        <v>0.02520218611952867</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>962628460.5220571</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2268612394.274839</v>
+        <v>1906516618.087193</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1679942177297088</v>
+        <v>0.1202447403849443</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03602459067274537</v>
+        <v>0.03840268721711334</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1134306215.122797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4537083319.448792</v>
+        <v>4988088878.314834</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1249099850148978</v>
+        <v>0.1379117005997427</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04186965637544592</v>
+        <v>0.05146646166763841</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>126</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2268541660.013124</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3244935886.340505</v>
+        <v>4274127007.576468</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1409144442436845</v>
+        <v>0.1505780076911007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04571102168371186</v>
+        <v>0.04670204357930875</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>95</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1622467899.51178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4574038507.279119</v>
+        <v>3693535988.906211</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09592816044605583</v>
+        <v>0.09172951892534363</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0315760663132332</v>
+        <v>0.02405625779141115</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2287019254.642879</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1237708150.822595</v>
+        <v>1418074246.250167</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1325331615862436</v>
+        <v>0.170670190629053</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04377948585168585</v>
+        <v>0.03006879629349727</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>618854148.2222562</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3870854024.520083</v>
+        <v>4066803019.425552</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1450652507618841</v>
+        <v>0.1262986019365966</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03478117841685691</v>
+        <v>0.03332276515208629</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>122</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1935427010.164595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>939412726.1097472</v>
+        <v>1350864672.373246</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1565744485632788</v>
+        <v>0.1584046181278896</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03566278337556834</v>
+        <v>0.04424197491953451</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>469706456.8486841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3596058246.78255</v>
+        <v>4584574659.199348</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1126095810268893</v>
+        <v>0.1308888611258729</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04968829510167848</v>
+        <v>0.04146729168513436</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>146</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1798029203.6512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2563830729.546822</v>
+        <v>2968092493.16947</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1762847347440589</v>
+        <v>0.1817213799947667</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02473176955382196</v>
+        <v>0.03077745933983785</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1281915427.302027</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4700982369.387404</v>
+        <v>3736387433.296832</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1648668588808646</v>
+        <v>0.168988323838293</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04741763908705873</v>
+        <v>0.03652949601239137</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>116</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2350491303.834899</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4409433671.191975</v>
+        <v>4486047790.504942</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1355112606292071</v>
+        <v>0.2007434932866408</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02180686209895224</v>
+        <v>0.02437395209671836</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2204716828.583906</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1578332089.337566</v>
+        <v>1424076739.025706</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1020277590130322</v>
+        <v>0.1284308059214027</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0358824321542668</v>
+        <v>0.04335759791553707</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>789166075.3458791</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3834926562.967035</v>
+        <v>2926109318.007165</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1361130392961002</v>
+        <v>0.1141253710090589</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02365769211726961</v>
+        <v>0.01998322676732146</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>112</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1917463356.000618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1529258265.686782</v>
+        <v>1275597665.589429</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1604765144583233</v>
+        <v>0.149623410005035</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0285345511833328</v>
+        <v>0.02799285110921611</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>764629161.3136946</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4302464152.018195</v>
+        <v>4201210683.121089</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08146134959253586</v>
+        <v>0.08796256088998491</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03733770879587441</v>
+        <v>0.03296436117881065</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2151232037.360259</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3526571953.000074</v>
+        <v>3261375922.153303</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1976969774317262</v>
+        <v>0.2012755195750974</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02250548938639605</v>
+        <v>0.02846865624662527</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1763286102.094357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2059132380.667743</v>
+        <v>2657989069.73616</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1687609675526933</v>
+        <v>0.1175481993519548</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02462528399805245</v>
+        <v>0.02289304141622962</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>122</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1029566259.539455</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1693223385.446847</v>
+        <v>1809805486.836068</v>
       </c>
       <c r="F62" t="n">
-        <v>0.125004579372937</v>
+        <v>0.1391230236981021</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04489905154008846</v>
+        <v>0.03148684703411014</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>846611704.7968144</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5167745689.126516</v>
+        <v>3454615456.230965</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1059626270718521</v>
+        <v>0.07735589685486853</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03464458740154206</v>
+        <v>0.03339880239484197</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2583872854.839481</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5456195786.696095</v>
+        <v>3620843449.9066</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1386562019782911</v>
+        <v>0.1457386654086685</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02444911568703494</v>
+        <v>0.03085977629710125</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>110</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2728098031.64001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4591683545.477628</v>
+        <v>4125571958.810042</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1164009656931988</v>
+        <v>0.1223517633588838</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02635775782198214</v>
+        <v>0.02097697415690434</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>128</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2295841756.011106</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4092308356.260882</v>
+        <v>3804754659.834574</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1445835070862387</v>
+        <v>0.1249983807347232</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04220718709516188</v>
+        <v>0.05066796586222354</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>104</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2046154156.639933</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2675642310.744201</v>
+        <v>2445076871.686744</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06644619609737756</v>
+        <v>0.08341730004297897</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03396159059379862</v>
+        <v>0.03221423334264149</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>114</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1337821201.129056</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3678587513.432494</v>
+        <v>3668360965.200171</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1070635256163929</v>
+        <v>0.1366976579347601</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04225878873936625</v>
+        <v>0.0440156534766766</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1839293733.034472</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1517571591.94228</v>
+        <v>1799462230.160974</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1215311427811514</v>
+        <v>0.1332904546701543</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04533780741462041</v>
+        <v>0.05755000384412987</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>758785738.5461953</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3145891408.262579</v>
+        <v>3647869495.50179</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06403217005830415</v>
+        <v>0.1021378506305621</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04394377397622369</v>
+        <v>0.03649267253141447</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>101</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1572945690.584584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3630342403.305564</v>
+        <v>4376895881.492458</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1757439675809831</v>
+        <v>0.1456086340891521</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02504822508933486</v>
+        <v>0.03233609462798082</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>130</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1815171205.103122</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2227556158.681833</v>
+        <v>1579226462.887361</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06985764334708428</v>
+        <v>0.09489801299169402</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05089383566563769</v>
+        <v>0.04455202756970268</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1113777988.992503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2529853940.569741</v>
+        <v>2962115209.41933</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09983301153572646</v>
+        <v>0.109369520170008</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03735358645429797</v>
+        <v>0.04269282429254891</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>135</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1264927009.32772</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2432727596.063506</v>
+        <v>2754145587.544735</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1461688391218768</v>
+        <v>0.1682095685107079</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02467045037010262</v>
+        <v>0.02301760847655627</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>122</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1216363912.505255</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1853941270.975474</v>
+        <v>2102100947.635123</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1129167665009188</v>
+        <v>0.164230433373724</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02702962582369429</v>
+        <v>0.03191900667191432</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>926970613.4386756</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4665826142.089788</v>
+        <v>5308805652.877625</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1119124908391824</v>
+        <v>0.1094771472330528</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02777033704870164</v>
+        <v>0.03191543178343892</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>82</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2332913083.690234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2002406681.726755</v>
+        <v>1618124143.916634</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1443725863269481</v>
+        <v>0.1821545640177291</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02184149799875444</v>
+        <v>0.02119460688652543</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1001203402.785717</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4164959836.730518</v>
+        <v>3533607779.257309</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1349024301647914</v>
+        <v>0.1349448312063758</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04846021177309724</v>
+        <v>0.0428095956275366</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>123</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2082479872.29616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1435306801.709146</v>
+        <v>1665487196.421854</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1206490719397708</v>
+        <v>0.142187424241146</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03188558442532395</v>
+        <v>0.02623131845363197</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>717653423.7247106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5221312897.885054</v>
+        <v>4995630864.021084</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1107045207974064</v>
+        <v>0.08308587146377205</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03232159594629745</v>
+        <v>0.02666012214594843</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2610656509.165439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4417793203.069601</v>
+        <v>4376267011.364612</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09942703072195415</v>
+        <v>0.09179723059051206</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02758427258659823</v>
+        <v>0.02392279265346041</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2208896580.278246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3935125255.325044</v>
+        <v>3885847114.592714</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2172285682104769</v>
+        <v>0.1436778418772162</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02599752032088444</v>
+        <v>0.02932233980183252</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>124</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1967562671.026126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2078111996.061022</v>
+        <v>1574809066.10979</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1035763521834692</v>
+        <v>0.1458644789847574</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03155916277517547</v>
+        <v>0.04407865623052411</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1039055993.101574</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1604491448.772205</v>
+        <v>1966263404.745522</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08610092620421586</v>
+        <v>0.07404670779677168</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05067165653252872</v>
+        <v>0.0480488504911111</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>802245787.2979687</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3217829236.083293</v>
+        <v>3300305268.858121</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1543057842253325</v>
+        <v>0.1462982867577822</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04241347964346563</v>
+        <v>0.04307925420150425</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>134</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1608914702.276877</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2084820585.511923</v>
+        <v>2536568379.881394</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1349097824763767</v>
+        <v>0.146740003666046</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02243747393915065</v>
+        <v>0.01770263256021641</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>46</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1042410332.171432</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>964783153.0155776</v>
+        <v>1405198019.720837</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1817148591972757</v>
+        <v>0.1467923814844593</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03004167270426448</v>
+        <v>0.04316510253117096</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>482391571.8094898</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2642263326.381034</v>
+        <v>3471233018.419986</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120612590458402</v>
+        <v>0.1404317092757134</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0381929395332477</v>
+        <v>0.0344479345111586</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>141</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1321131658.303177</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2209529148.45123</v>
+        <v>3015458480.541589</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1535982030696523</v>
+        <v>0.1587335494388123</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03036859979824354</v>
+        <v>0.02738177790359648</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>120</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1104764670.280695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1594635517.723177</v>
+        <v>1595744577.394902</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1186860661895214</v>
+        <v>0.1324997801658095</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04412183337754046</v>
+        <v>0.04237403816243204</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>797317754.9051129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1877018706.652992</v>
+        <v>1310894373.489477</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1799718453127365</v>
+        <v>0.165253873149088</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05193413618310454</v>
+        <v>0.05815322090382859</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>938509342.0190654</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2668056276.575211</v>
+        <v>2826426185.074422</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09556276799674697</v>
+        <v>0.07577087455408674</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03007619919025374</v>
+        <v>0.04672776124253143</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>96</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1334028134.98635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3766618058.981767</v>
+        <v>4243809074.051369</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1263035045048412</v>
+        <v>0.1215285503382359</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05402072649367168</v>
+        <v>0.04996222816253467</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>107</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1883309045.209534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1625442352.080957</v>
+        <v>1950369370.719141</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1119876032257472</v>
+        <v>0.1625668582214271</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03334769575539982</v>
+        <v>0.04256421111259411</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>812721125.6569113</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2396474287.961446</v>
+        <v>2760499203.694082</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1182696451310552</v>
+        <v>0.0982579191590594</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04637864821175521</v>
+        <v>0.03386483047079659</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1198237187.642907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2267640163.781845</v>
+        <v>2070250506.920217</v>
       </c>
       <c r="F96" t="n">
-        <v>0.129873105522122</v>
+        <v>0.135486278712406</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03001905118354542</v>
+        <v>0.03801270562943884</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1133820040.322719</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5002570632.305527</v>
+        <v>4583468159.958633</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1747979016370685</v>
+        <v>0.1475731891196323</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02509363145810607</v>
+        <v>0.01810249827702699</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>114</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2501285453.165523</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3791037666.3616</v>
+        <v>3948689307.754246</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09104880413495682</v>
+        <v>0.08481902790494238</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02998816246197178</v>
+        <v>0.02679932985621048</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1895518871.518564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3298558489.796947</v>
+        <v>2676485534.505372</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1330693190277751</v>
+        <v>0.1288104954290728</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03239849166576528</v>
+        <v>0.0278037944634536</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1649279252.461765</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3627213256.404362</v>
+        <v>4051554601.334905</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1236622964424812</v>
+        <v>0.1444342230478347</v>
       </c>
       <c r="G100" t="n">
-        <v>0.023881576584744</v>
+        <v>0.02366544275454989</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1813606669.130224</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2896395729.805171</v>
+        <v>3570163368.109015</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2017830568532421</v>
+        <v>0.157979930715533</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04379096967391577</v>
+        <v>0.04387642929162161</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>144</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1448197940.251655</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_355.xlsx
+++ b/output/fit_clients/fit_round_355.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1905910244.841527</v>
+        <v>2439592316.958047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0871600617022686</v>
+        <v>0.07259362206178863</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03492988519508958</v>
+        <v>0.04225809592407007</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1629226613.989853</v>
+        <v>2104343878.243038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1648213203963044</v>
+        <v>0.1632245222355202</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03771024659014025</v>
+        <v>0.03850031874598769</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3257920514.834451</v>
+        <v>4042334704.509413</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1642633435181843</v>
+        <v>0.1051102922606061</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03355652755123061</v>
+        <v>0.02788762355079518</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4137668851.442395</v>
+        <v>3572817603.993102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1032894745869476</v>
+        <v>0.09740768356583235</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04193979102595762</v>
+        <v>0.04696381588805922</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2477665668.124743</v>
+        <v>2527052904.426355</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1385072145947691</v>
+        <v>0.1262624701764039</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04746274360401785</v>
+        <v>0.04420089468295252</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2527519882.258947</v>
+        <v>2162062521.926327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09561705441417943</v>
+        <v>0.08958247481458084</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03003170050016346</v>
+        <v>0.03366896051686991</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2582580104.053131</v>
+        <v>3158851366.865358</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1678543724947688</v>
+        <v>0.1434653372558355</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02554452022371933</v>
+        <v>0.03338990331492856</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1485836186.970536</v>
+        <v>1961913978.400977</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1399179397782348</v>
+        <v>0.1838004292324409</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02525766154935144</v>
+        <v>0.02792996720822537</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5886723594.139961</v>
+        <v>4288537051.558241</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2003522609589654</v>
+        <v>0.1706462878914382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0389950619068169</v>
+        <v>0.04117996720746652</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3225921096.632928</v>
+        <v>3145398637.157175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1277377670190482</v>
+        <v>0.154461966077496</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0363411708882362</v>
+        <v>0.04192916483291168</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2023297680.126577</v>
+        <v>2424063564.042083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1982581226168994</v>
+        <v>0.1695181874669058</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04358402951315199</v>
+        <v>0.0536752377740833</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3214568885.952862</v>
+        <v>4489936458.965591</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08494629661809504</v>
+        <v>0.0960710390068243</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02353472324302679</v>
+        <v>0.02031300693902635</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2603658631.344188</v>
+        <v>2817933956.304601</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1591501252457714</v>
+        <v>0.1395738224574281</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03693550742455073</v>
+        <v>0.03958499919130336</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1131245609.08769</v>
+        <v>1464548566.410825</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06965308511333555</v>
+        <v>0.0886927385793894</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04437767173948431</v>
+        <v>0.03936628319087842</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2044342150.894469</v>
+        <v>1978007366.751743</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09389942067563266</v>
+        <v>0.080183156749679</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03339277621579925</v>
+        <v>0.03784018864897813</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4252285867.533054</v>
+        <v>4155857136.492685</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1722384736819352</v>
+        <v>0.1573412094010047</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04457643437765006</v>
+        <v>0.04717252978591029</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2693106559.43417</v>
+        <v>3919826916.279881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1338841672906448</v>
+        <v>0.1712226456345522</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02419855492833941</v>
+        <v>0.03185061121126567</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>947842600.6293159</v>
+        <v>1148782062.487655</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1443239810778767</v>
+        <v>0.1481833202249185</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02249029113403922</v>
+        <v>0.0246001262212589</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2730052775.05301</v>
+        <v>2613128015.405346</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0978720714285139</v>
+        <v>0.1436704704640122</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02655587014895217</v>
+        <v>0.02098146732878357</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2129596200.42055</v>
+        <v>2399009473.049474</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06903161029709605</v>
+        <v>0.1004239404292191</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04270755035036709</v>
+        <v>0.04361556766290631</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2724503746.61446</v>
+        <v>2559338519.947025</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1287276995422098</v>
+        <v>0.1081588785510163</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04298440537749412</v>
+        <v>0.05349899681253212</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1004985801.563225</v>
+        <v>1317081527.838852</v>
       </c>
       <c r="F23" t="n">
-        <v>0.125838061464817</v>
+        <v>0.1399110008644526</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0445403239904653</v>
+        <v>0.04954121313566654</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3650586596.452925</v>
+        <v>3817559888.986288</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1201784374001066</v>
+        <v>0.09741583522907382</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03731008712090483</v>
+        <v>0.0281605490886124</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1184998889.377348</v>
+        <v>1305598070.270647</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07501749516184744</v>
+        <v>0.07578145272844607</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02249741407091968</v>
+        <v>0.02528786847010742</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1222041630.358603</v>
+        <v>877812185.4873657</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09304951439010337</v>
+        <v>0.111454322850097</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03238555903792453</v>
+        <v>0.03646629060407243</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4542938989.129298</v>
+        <v>3195228864.324544</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1028246906704148</v>
+        <v>0.1458561460553338</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0247092223186327</v>
+        <v>0.0166519092543169</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2761309777.992254</v>
+        <v>3344186218.195619</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1080511417010181</v>
+        <v>0.0928557526293356</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04348909345896752</v>
+        <v>0.04351782350377686</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5188145336.384197</v>
+        <v>5401714224.009036</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1191747392226258</v>
+        <v>0.1260574427038838</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04653672292079986</v>
+        <v>0.03349957427290928</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2042468840.627449</v>
+        <v>1920049758.015754</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1337891366730344</v>
+        <v>0.139161148191097</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03160676892199343</v>
+        <v>0.03342740868179907</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1158696750.823652</v>
+        <v>1258959435.37964</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07588999460716964</v>
+        <v>0.099376910130511</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04791991492368083</v>
+        <v>0.04783041572349202</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1606717942.451436</v>
+        <v>1299514029.831922</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08484284858039601</v>
+        <v>0.09041259087828737</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03735574799415218</v>
+        <v>0.03861983294549658</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2919881499.261465</v>
+        <v>2351226593.818386</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1993459698843803</v>
+        <v>0.1916861239926498</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04634774163074715</v>
+        <v>0.05756020873005351</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1401893859.069573</v>
+        <v>1312986169.005539</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07856950446489169</v>
+        <v>0.1208344759693015</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02189490908550583</v>
+        <v>0.01838739406334399</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1278138801.141426</v>
+        <v>1247146906.925558</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07334002244694382</v>
+        <v>0.08189003596403807</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02815219638462303</v>
+        <v>0.04447764050411249</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2891769649.465104</v>
+        <v>2627775467.938852</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1362951776811258</v>
+        <v>0.1582700749234156</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02052468755896232</v>
+        <v>0.02342769802061632</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2618903182.518922</v>
+        <v>1782475063.318491</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09605957212623097</v>
+        <v>0.1006184851040981</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03249319458795739</v>
+        <v>0.02630180343719719</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1491534236.306674</v>
+        <v>1401298327.752014</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1197792466962015</v>
+        <v>0.09451827818792266</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02574961621473285</v>
+        <v>0.03146350968441583</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1509412791.548108</v>
+        <v>1738437745.106298</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1862613188566958</v>
+        <v>0.1775304471063459</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02217333506480871</v>
+        <v>0.02811919814312349</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1647991545.336474</v>
+        <v>1233243634.823436</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1247523044119772</v>
+        <v>0.1574849689757971</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04055261425384526</v>
+        <v>0.04650397717664827</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2459265703.598373</v>
+        <v>2752249478.410617</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1057348677371872</v>
+        <v>0.1448686417829106</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03683791410219097</v>
+        <v>0.04605428052346896</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3338214738.42011</v>
+        <v>2943452161.532588</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07851450521389347</v>
+        <v>0.1031994585300645</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03802242795654874</v>
+        <v>0.04178396438150286</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2065641413.733048</v>
+        <v>2378961481.420814</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1331699078753016</v>
+        <v>0.1451718282872834</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01671254377612647</v>
+        <v>0.02487725249294808</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1469917613.77632</v>
+        <v>1881256910.013119</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0945312932580461</v>
+        <v>0.077445120206662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02520218611952867</v>
+        <v>0.03472016180046764</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1906516618.087193</v>
+        <v>1675298181.896724</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1202447403849443</v>
+        <v>0.1239263245535882</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03840268721711334</v>
+        <v>0.05146988773646666</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4988088878.314834</v>
+        <v>5043814233.607903</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1379117005997427</v>
+        <v>0.139867576999354</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05146646166763841</v>
+        <v>0.05902121138692112</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4274127007.576468</v>
+        <v>4554760203.023454</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1505780076911007</v>
+        <v>0.1888325619510564</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04670204357930875</v>
+        <v>0.04783844877950143</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3693535988.906211</v>
+        <v>4041142224.569851</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09172951892534363</v>
+        <v>0.09367827065782029</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02405625779141115</v>
+        <v>0.03555001545551074</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1418074246.250167</v>
+        <v>1229954398.970405</v>
       </c>
       <c r="F49" t="n">
-        <v>0.170670190629053</v>
+        <v>0.181615169065851</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03006879629349727</v>
+        <v>0.02839330843092006</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4066803019.425552</v>
+        <v>3977229020.064064</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1262986019365966</v>
+        <v>0.1263972678490599</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03332276515208629</v>
+        <v>0.04170726534325864</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1350864672.373246</v>
+        <v>1035213528.732671</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1584046181278896</v>
+        <v>0.1838522372965314</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04424197491953451</v>
+        <v>0.04458607814877085</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4584574659.199348</v>
+        <v>5002227265.160557</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1308888611258729</v>
+        <v>0.09085898822020505</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04146729168513436</v>
+        <v>0.05314082282675392</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2968092493.16947</v>
+        <v>3008430282.682139</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1817213799947667</v>
+        <v>0.1515070146591125</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03077745933983785</v>
+        <v>0.03485167819245857</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3736387433.296832</v>
+        <v>3488999895.401913</v>
       </c>
       <c r="F54" t="n">
-        <v>0.168988323838293</v>
+        <v>0.1050385611743379</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03652949601239137</v>
+        <v>0.03584228182389477</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4486047790.504942</v>
+        <v>4044207132.408724</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2007434932866408</v>
+        <v>0.1974219279182903</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02437395209671836</v>
+        <v>0.02662914325172146</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1424076739.025706</v>
+        <v>1203025818.653399</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1284308059214027</v>
+        <v>0.106137731480315</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04335759791553707</v>
+        <v>0.05199244262428784</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2926109318.007165</v>
+        <v>3868219565.025105</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1141253710090589</v>
+        <v>0.145786306510769</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01998322676732146</v>
+        <v>0.01841196525730193</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1275597665.589429</v>
+        <v>1340708531.665117</v>
       </c>
       <c r="F58" t="n">
-        <v>0.149623410005035</v>
+        <v>0.1386540545209384</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02799285110921611</v>
+        <v>0.03754217839676816</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4201210683.121089</v>
+        <v>3865632183.321155</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08796256088998491</v>
+        <v>0.1261144516779495</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03296436117881065</v>
+        <v>0.03053796930119036</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3261375922.153303</v>
+        <v>3168742945.569272</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2012755195750974</v>
+        <v>0.1494533323463384</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02846865624662527</v>
+        <v>0.02561152247627006</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2657989069.73616</v>
+        <v>2996852985.843794</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1175481993519548</v>
+        <v>0.1505213316250356</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02289304141622962</v>
+        <v>0.03242734725893161</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1809805486.836068</v>
+        <v>1437019914.721906</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1391230236981021</v>
+        <v>0.1394379583149299</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03148684703411014</v>
+        <v>0.0311536487660702</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3454615456.230965</v>
+        <v>4239229897.768272</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07735589685486853</v>
+        <v>0.1010251978014222</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03339880239484197</v>
+        <v>0.03634856488867912</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3620843449.9066</v>
+        <v>3780114172.413256</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1457386654086685</v>
+        <v>0.121652307904843</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03085977629710125</v>
+        <v>0.02387354411823699</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4125571958.810042</v>
+        <v>4359438127.77164</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1223517633588838</v>
+        <v>0.130289473969977</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02097697415690434</v>
+        <v>0.02004946640775348</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3804754659.834574</v>
+        <v>4718183431.045051</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1249983807347232</v>
+        <v>0.1137248557666496</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05066796586222354</v>
+        <v>0.03961302419025277</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2445076871.686744</v>
+        <v>3096875776.195956</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08341730004297897</v>
+        <v>0.06608281752963109</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03221423334264149</v>
+        <v>0.03430977937107724</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3668360965.200171</v>
+        <v>4848047033.276811</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1366976579347601</v>
+        <v>0.1210649289012881</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0440156534766766</v>
+        <v>0.0489448965970949</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1799462230.160974</v>
+        <v>2456901615.476108</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1332904546701543</v>
+        <v>0.14261052117592</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05755000384412987</v>
+        <v>0.03898036499987267</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3647869495.50179</v>
+        <v>3708573479.546907</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1021378506305621</v>
+        <v>0.08788678536581342</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03649267253141447</v>
+        <v>0.0464344590847619</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4376895881.492458</v>
+        <v>5489124279.702104</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1456086340891521</v>
+        <v>0.1510890507857423</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03233609462798082</v>
+        <v>0.03059595479230964</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1579226462.887361</v>
+        <v>1996682158.891485</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09489801299169402</v>
+        <v>0.0785847953944168</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04455202756970268</v>
+        <v>0.04662672289563421</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2962115209.41933</v>
+        <v>3055766491.456396</v>
       </c>
       <c r="F73" t="n">
-        <v>0.109369520170008</v>
+        <v>0.07815582950006443</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04269282429254891</v>
+        <v>0.0489229570167099</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2754145587.544735</v>
+        <v>3213114486.217679</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1682095685107079</v>
+        <v>0.1675069644649163</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02301760847655627</v>
+        <v>0.02666051769456963</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2102100947.635123</v>
+        <v>1697945305.621712</v>
       </c>
       <c r="F75" t="n">
-        <v>0.164230433373724</v>
+        <v>0.1351913510282266</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03191900667191432</v>
+        <v>0.02799172115150425</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5308805652.877625</v>
+        <v>3535833653.564906</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1094771472330528</v>
+        <v>0.08750183105835241</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03191543178343892</v>
+        <v>0.03201389666777323</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1618124143.916634</v>
+        <v>1593753160.943844</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1821545640177291</v>
+        <v>0.1295877202730742</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02119460688652543</v>
+        <v>0.02866822508012179</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3533607779.257309</v>
+        <v>3575386146.092611</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1349448312063758</v>
+        <v>0.1291455395133339</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0428095956275366</v>
+        <v>0.05165456247114961</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1665487196.421854</v>
+        <v>1171425508.93478</v>
       </c>
       <c r="F79" t="n">
-        <v>0.142187424241146</v>
+        <v>0.1596021321298938</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02623131845363197</v>
+        <v>0.03241944167827399</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4995630864.021084</v>
+        <v>4866566286.654656</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08308587146377205</v>
+        <v>0.09285010406184155</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02666012214594843</v>
+        <v>0.03226451801991616</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4376267011.364612</v>
+        <v>3381625625.879666</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09179723059051206</v>
+        <v>0.1239391106922305</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02392279265346041</v>
+        <v>0.02993833327560118</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3885847114.592714</v>
+        <v>5524144286.250051</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1436778418772162</v>
+        <v>0.1933293769808658</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02932233980183252</v>
+        <v>0.02853247135697537</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1574809066.10979</v>
+        <v>1964868276.602927</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1458644789847574</v>
+        <v>0.0986142304534041</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04407865623052411</v>
+        <v>0.03415283795616814</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1966263404.745522</v>
+        <v>2474540770.843987</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07404670779677168</v>
+        <v>0.07748936693866679</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0480488504911111</v>
+        <v>0.03920320242823811</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3300305268.858121</v>
+        <v>2518340583.104028</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1462982867577822</v>
+        <v>0.1554836376823821</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04307925420150425</v>
+        <v>0.05153176222405987</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2536568379.881394</v>
+        <v>2488051409.985414</v>
       </c>
       <c r="F86" t="n">
-        <v>0.146740003666046</v>
+        <v>0.1077942307568377</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01770263256021641</v>
+        <v>0.02519508605996695</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1405198019.720837</v>
+        <v>961307751.4351023</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1467923814844593</v>
+        <v>0.1866570703285127</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04316510253117096</v>
+        <v>0.02671189347075285</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3471233018.419986</v>
+        <v>2412559905.544952</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1404317092757134</v>
+        <v>0.1721502564051453</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0344479345111586</v>
+        <v>0.02408828135541374</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3015458480.541589</v>
+        <v>2670779354.788315</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1587335494388123</v>
+        <v>0.1255368179699508</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02738177790359648</v>
+        <v>0.03573694565707525</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1595744577.394902</v>
+        <v>1973773597.555872</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1324997801658095</v>
+        <v>0.126579592372223</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04237403816243204</v>
+        <v>0.04890470289388345</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1310894373.489477</v>
+        <v>1718979301.751578</v>
       </c>
       <c r="F91" t="n">
-        <v>0.165253873149088</v>
+        <v>0.1723417957944896</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05815322090382859</v>
+        <v>0.06070177805752194</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2826426185.074422</v>
+        <v>1960905036.014824</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07577087455408674</v>
+        <v>0.06689426530287242</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04672776124253143</v>
+        <v>0.02876634505913591</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4243809074.051369</v>
+        <v>3113646690.274527</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1215285503382359</v>
+        <v>0.1194217816181056</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04996222816253467</v>
+        <v>0.04858175606931316</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1950369370.719141</v>
+        <v>1664327334.399845</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1625668582214271</v>
+        <v>0.1673647293890848</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04256421111259411</v>
+        <v>0.02742537236918655</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2760499203.694082</v>
+        <v>3133357427.120456</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0982579191590594</v>
+        <v>0.1205989448876137</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03386483047079659</v>
+        <v>0.04117055341227617</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2070250506.920217</v>
+        <v>2401883106.173402</v>
       </c>
       <c r="F96" t="n">
-        <v>0.135486278712406</v>
+        <v>0.09176159787777223</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03801270562943884</v>
+        <v>0.04424922616706586</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4583468159.958633</v>
+        <v>3543605157.996173</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1475731891196323</v>
+        <v>0.1271161971003718</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01810249827702699</v>
+        <v>0.02031302796796628</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3948689307.754246</v>
+        <v>3254136451.208742</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08481902790494238</v>
+        <v>0.09896891483700032</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02679932985621048</v>
+        <v>0.02682360351481228</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2676485534.505372</v>
+        <v>2262702733.190871</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1288104954290728</v>
+        <v>0.139399163228039</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0278037944634536</v>
+        <v>0.02387784686239509</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4051554601.334905</v>
+        <v>4173335950.673562</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1444342230478347</v>
+        <v>0.1379124998526385</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02366544275454989</v>
+        <v>0.01899056654795508</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3570163368.109015</v>
+        <v>2646041687.790945</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157979930715533</v>
+        <v>0.1564744525668197</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04387642929162161</v>
+        <v>0.05314671278669201</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_355.xlsx
+++ b/output/fit_clients/fit_round_355.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2439592316.958047</v>
+        <v>1684554034.975808</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07259362206178863</v>
+        <v>0.08178919345911632</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04225809592407007</v>
+        <v>0.03310635306315336</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2104343878.243038</v>
+        <v>2138861883.833555</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1632245222355202</v>
+        <v>0.1666891989094985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03850031874598769</v>
+        <v>0.04200894273848618</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4042334704.509413</v>
+        <v>4874257236.149984</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1051102922606061</v>
+        <v>0.1318639533692484</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02788762355079518</v>
+        <v>0.03168112456387116</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>183</v>
+      </c>
+      <c r="J4" t="n">
+        <v>355</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3572817603.993102</v>
+        <v>3297477133.659383</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09740768356583235</v>
+        <v>0.07276767269001698</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04696381588805922</v>
+        <v>0.04459496562600082</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>142</v>
+      </c>
+      <c r="J5" t="n">
+        <v>352</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2527052904.426355</v>
+        <v>2426442425.300988</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1262624701764039</v>
+        <v>0.1099567545431367</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04420089468295252</v>
+        <v>0.04786398061077496</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2162062521.926327</v>
+        <v>2675285169.028061</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08958247481458084</v>
+        <v>0.06494371476925348</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03366896051686991</v>
+        <v>0.04607721976163823</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3158851366.865358</v>
+        <v>3089788979.497283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1434653372558355</v>
+        <v>0.1518225731896838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03338990331492856</v>
+        <v>0.03147206141420349</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="n">
+        <v>53.23311620724981</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1961913978.400977</v>
+        <v>1575358144.10175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1838004292324409</v>
+        <v>0.1614318037720038</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02792996720822537</v>
+        <v>0.02469669731776743</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4288537051.558241</v>
+        <v>3997572140.018507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1706462878914382</v>
+        <v>0.1836869224227999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04117996720746652</v>
+        <v>0.05039742538838378</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>298</v>
+      </c>
+      <c r="J10" t="n">
+        <v>355</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3145398637.157175</v>
+        <v>4014770583.235527</v>
       </c>
       <c r="F11" t="n">
-        <v>0.154461966077496</v>
+        <v>0.1311515601546829</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04192916483291168</v>
+        <v>0.04588413189982642</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>146</v>
+      </c>
+      <c r="J11" t="n">
+        <v>355</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2424063564.042083</v>
+        <v>2798703454.43998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1695181874669058</v>
+        <v>0.1425287459764522</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0536752377740833</v>
+        <v>0.04684966913359979</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4489936458.965591</v>
+        <v>5263915119.863451</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0960710390068243</v>
+        <v>0.09432320948179228</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02031300693902635</v>
+        <v>0.02383032531590907</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>183</v>
+      </c>
+      <c r="J13" t="n">
+        <v>355</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2817933956.304601</v>
+        <v>3472465899.984165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1395738224574281</v>
+        <v>0.1613354717227823</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03958499919130336</v>
+        <v>0.04234580229500529</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>355</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1464548566.410825</v>
+        <v>1840901034.727084</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0886927385793894</v>
+        <v>0.09589507709500471</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03936628319087842</v>
+        <v>0.03003585860168491</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1978007366.751743</v>
+        <v>1819590080.148015</v>
       </c>
       <c r="F16" t="n">
-        <v>0.080183156749679</v>
+        <v>0.08262524540845584</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03784018864897813</v>
+        <v>0.04986754393897695</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4155857136.492685</v>
+        <v>4879602135.998242</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1573412094010047</v>
+        <v>0.1375380789295217</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04717252978591029</v>
+        <v>0.03895331246238445</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>167</v>
+      </c>
+      <c r="J17" t="n">
+        <v>355</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3919826916.279881</v>
+        <v>3265470833.902951</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1712226456345522</v>
+        <v>0.1342901152254434</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03185061121126567</v>
+        <v>0.02774738874664744</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>87</v>
+      </c>
+      <c r="J18" t="n">
+        <v>350</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1148782062.487655</v>
+        <v>1325846032.62085</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1481833202249185</v>
+        <v>0.1713844450941828</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0246001262212589</v>
+        <v>0.01769149603191658</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2613128015.405346</v>
+        <v>2295901307.731427</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1436704704640122</v>
+        <v>0.1168023212598394</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02098146732878357</v>
+        <v>0.01977736382431379</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1168,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2399009473.049474</v>
+        <v>2427882131.234434</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1004239404292191</v>
+        <v>0.09795231898256693</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04361556766290631</v>
+        <v>0.02895602446262879</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2559338519.947025</v>
+        <v>3756073249.202377</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1081588785510163</v>
+        <v>0.1195215156211752</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05349899681253212</v>
+        <v>0.05241844883675623</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>96</v>
+      </c>
+      <c r="J22" t="n">
+        <v>355</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1317081527.838852</v>
+        <v>1377277892.571907</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1399110008644526</v>
+        <v>0.121526786914344</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04954121313566654</v>
+        <v>0.05435657916563655</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1267,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3817559888.986288</v>
+        <v>3375103937.427481</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09741583522907382</v>
+        <v>0.1379325496314064</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0281605490886124</v>
+        <v>0.03521095895914253</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>107</v>
+      </c>
+      <c r="J24" t="n">
+        <v>354</v>
+      </c>
+      <c r="K24" t="n">
+        <v>54.29842391735989</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1305598070.270647</v>
+        <v>1067064857.240333</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07578145272844607</v>
+        <v>0.1206271206212735</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02528786847010742</v>
+        <v>0.02414400194370172</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1345,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>877812185.4873657</v>
+        <v>1015380430.934127</v>
       </c>
       <c r="F26" t="n">
-        <v>0.111454322850097</v>
+        <v>0.1247481908908859</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03646629060407243</v>
+        <v>0.02571092992625306</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3195228864.324544</v>
+        <v>3733050772.055557</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1458561460553338</v>
+        <v>0.126209946026802</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0166519092543169</v>
+        <v>0.01694815092624541</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>148</v>
+      </c>
+      <c r="J27" t="n">
+        <v>355</v>
+      </c>
+      <c r="K27" t="n">
+        <v>64.47756518809646</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3344186218.195619</v>
+        <v>2351325924.932033</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0928557526293356</v>
+        <v>0.1379025787556906</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04351782350377686</v>
+        <v>0.04190270897164739</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>83</v>
+      </c>
+      <c r="J28" t="n">
+        <v>354</v>
+      </c>
+      <c r="K28" t="n">
+        <v>30.61710752163414</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1454,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5401714224.009036</v>
+        <v>4057552636.131442</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1260574427038838</v>
+        <v>0.1188349249564536</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03349957427290928</v>
+        <v>0.03121112392498882</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>315</v>
+      </c>
+      <c r="J29" t="n">
+        <v>355</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1920049758.015754</v>
+        <v>2118981651.095542</v>
       </c>
       <c r="F30" t="n">
-        <v>0.139161148191097</v>
+        <v>0.08632715542474645</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03342740868179907</v>
+        <v>0.02523086593245196</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1258959435.37964</v>
+        <v>1182797397.34427</v>
       </c>
       <c r="F31" t="n">
-        <v>0.099376910130511</v>
+        <v>0.1104027765896638</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04783041572349202</v>
+        <v>0.04536320916404367</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1299514029.831922</v>
+        <v>1269495371.97808</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09041259087828737</v>
+        <v>0.08084008949196797</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03861983294549658</v>
+        <v>0.02984598582585843</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2351226593.818386</v>
+        <v>2225642208.142891</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1916861239926498</v>
+        <v>0.1478050106735803</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05756020873005351</v>
+        <v>0.05937925725392991</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1312986169.005539</v>
+        <v>1509579188.370771</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1208344759693015</v>
+        <v>0.08593209035013943</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01838739406334399</v>
+        <v>0.02584830699779686</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1247146906.925558</v>
+        <v>1263662030.411932</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08189003596403807</v>
+        <v>0.0967121967125547</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04447764050411249</v>
+        <v>0.03517803144090752</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2627775467.938852</v>
+        <v>2023654186.555423</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1582700749234156</v>
+        <v>0.1258058738631352</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02342769802061632</v>
+        <v>0.02574331574203502</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1782475063.318491</v>
+        <v>1899534164.156472</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1006184851040981</v>
+        <v>0.0733969688458137</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02630180343719719</v>
+        <v>0.0261670677693896</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1401298327.752014</v>
+        <v>1550452504.650532</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09451827818792266</v>
+        <v>0.0744097524474681</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03146350968441583</v>
+        <v>0.03665718088777817</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1738437745.106298</v>
+        <v>2151891329.783973</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1775304471063459</v>
+        <v>0.1579983279983861</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02811919814312349</v>
+        <v>0.02041415439442643</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1233243634.823436</v>
+        <v>1651447428.279169</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1574849689757971</v>
+        <v>0.1457031789541779</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04650397717664827</v>
+        <v>0.04329487347516581</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2752249478.410617</v>
+        <v>2556074564.003911</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1448686417829106</v>
+        <v>0.1647242248142923</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04605428052346896</v>
+        <v>0.04238338797930321</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2943452161.532588</v>
+        <v>2665738986.529541</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1031994585300645</v>
+        <v>0.1039004998356681</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04178396438150286</v>
+        <v>0.0417297201932629</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>155</v>
+      </c>
+      <c r="J42" t="n">
+        <v>354</v>
+      </c>
+      <c r="K42" t="n">
+        <v>35.77264054019553</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2378961481.420814</v>
+        <v>2745797076.813624</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1451718282872834</v>
+        <v>0.1699853243455315</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02487725249294808</v>
+        <v>0.02453085001619371</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1881256910.013119</v>
+        <v>1575626510.117627</v>
       </c>
       <c r="F44" t="n">
-        <v>0.077445120206662</v>
+        <v>0.08994248347843561</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03472016180046764</v>
+        <v>0.03652039882216639</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1675298181.896724</v>
+        <v>2355246817.79934</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1239263245535882</v>
+        <v>0.1573254721797853</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05146988773646666</v>
+        <v>0.0380351808731532</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5043814233.607903</v>
+        <v>4012196325.853556</v>
       </c>
       <c r="F46" t="n">
-        <v>0.139867576999354</v>
+        <v>0.110178290569705</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05902121138692112</v>
+        <v>0.04123795386515844</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>213</v>
+      </c>
+      <c r="J46" t="n">
+        <v>354</v>
+      </c>
+      <c r="K46" t="n">
+        <v>62.49147917182938</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4554760203.023454</v>
+        <v>3507635745.296944</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1888325619510564</v>
+        <v>0.1244536736194903</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04783844877950143</v>
+        <v>0.03680180679946975</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>158</v>
+      </c>
+      <c r="J47" t="n">
+        <v>355</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4041142224.569851</v>
+        <v>3694879279.858094</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09367827065782029</v>
+        <v>0.09733364729562584</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03555001545551074</v>
+        <v>0.02517769717368512</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>179</v>
+      </c>
+      <c r="J48" t="n">
+        <v>355</v>
+      </c>
+      <c r="K48" t="n">
+        <v>65.22309067798538</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1229954398.970405</v>
+        <v>1745490108.485924</v>
       </c>
       <c r="F49" t="n">
-        <v>0.181615169065851</v>
+        <v>0.1306419414933934</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02839330843092006</v>
+        <v>0.03631193253771133</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3977229020.064064</v>
+        <v>2726801431.884735</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1263972678490599</v>
+        <v>0.151854830389882</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04170726534325864</v>
+        <v>0.03572960516693499</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>117</v>
+      </c>
+      <c r="J50" t="n">
+        <v>353</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1035213528.732671</v>
+        <v>1262770333.241793</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1838522372965314</v>
+        <v>0.1253959487390214</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04458607814877085</v>
+        <v>0.04355978070788134</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5002227265.160557</v>
+        <v>3712514864.328486</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09085898822020505</v>
+        <v>0.0849419389981812</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05314082282675392</v>
+        <v>0.06135734022745411</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>211</v>
+      </c>
+      <c r="J52" t="n">
+        <v>355</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3008430282.682139</v>
+        <v>2447161742.489189</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1515070146591125</v>
+        <v>0.1335309037427508</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03485167819245857</v>
+        <v>0.03478098977650276</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3488999895.401913</v>
+        <v>4264303923.324488</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1050385611743379</v>
+        <v>0.1655154522842608</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03584228182389477</v>
+        <v>0.04163308947513746</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>187</v>
+      </c>
+      <c r="J54" t="n">
+        <v>355</v>
+      </c>
+      <c r="K54" t="n">
+        <v>63.71493222588191</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4044207132.408724</v>
+        <v>3493569094.777117</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1974219279182903</v>
+        <v>0.2207939473707162</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02662914325172146</v>
+        <v>0.01967485075417217</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>170</v>
+      </c>
+      <c r="J55" t="n">
+        <v>354</v>
+      </c>
+      <c r="K55" t="n">
+        <v>56.40550185050214</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1203025818.653399</v>
+        <v>1667556673.631343</v>
       </c>
       <c r="F56" t="n">
-        <v>0.106137731480315</v>
+        <v>0.1344981104630563</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05199244262428784</v>
+        <v>0.04146807706827349</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3868219565.025105</v>
+        <v>3108911511.065666</v>
       </c>
       <c r="F57" t="n">
-        <v>0.145786306510769</v>
+        <v>0.1555931645067399</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01841196525730193</v>
+        <v>0.01920922438089217</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>147</v>
+      </c>
+      <c r="J57" t="n">
+        <v>353</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1340708531.665117</v>
+        <v>1761830259.590899</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1386540545209384</v>
+        <v>0.162405070621987</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03754217839676816</v>
+        <v>0.03939134815440287</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3865632183.321155</v>
+        <v>4557072253.206277</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1261144516779495</v>
+        <v>0.09073481527238762</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03053796930119036</v>
+        <v>0.0347203375987751</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>171</v>
+      </c>
+      <c r="J59" t="n">
+        <v>355</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3168742945.569272</v>
+        <v>2609903617.493496</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1494533323463384</v>
+        <v>0.1284691705898446</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02561152247627006</v>
+        <v>0.02523550836062141</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>63</v>
+      </c>
+      <c r="J60" t="n">
+        <v>354</v>
+      </c>
+      <c r="K60" t="n">
+        <v>42.1778286279921</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2996852985.843794</v>
+        <v>3138898749.707208</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1505213316250356</v>
+        <v>0.1697511762675004</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03242734725893161</v>
+        <v>0.02431408564456648</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1437019914.721906</v>
+        <v>1923066501.47138</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1394379583149299</v>
+        <v>0.1867944573010347</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0311536487660702</v>
+        <v>0.03815653798274404</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4239229897.768272</v>
+        <v>4423440425.511167</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1010251978014222</v>
+        <v>0.08216498798970279</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03634856488867912</v>
+        <v>0.03971755138747692</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>174</v>
+      </c>
+      <c r="J63" t="n">
+        <v>355</v>
+      </c>
+      <c r="K63" t="n">
+        <v>64.24980924806448</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3780114172.413256</v>
+        <v>4669443880.891117</v>
       </c>
       <c r="F64" t="n">
-        <v>0.121652307904843</v>
+        <v>0.1849528251822341</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02387354411823699</v>
+        <v>0.02513114810811748</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>175</v>
+      </c>
+      <c r="J64" t="n">
+        <v>355</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4359438127.77164</v>
+        <v>4543021984.868538</v>
       </c>
       <c r="F65" t="n">
-        <v>0.130289473969977</v>
+        <v>0.1140886008884247</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02004946640775348</v>
+        <v>0.02896639386013707</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>272</v>
+      </c>
+      <c r="J65" t="n">
+        <v>354</v>
+      </c>
+      <c r="K65" t="n">
+        <v>62.1570571202807</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4718183431.045051</v>
+        <v>4941406088.648726</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1137248557666496</v>
+        <v>0.1151783757488465</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03961302419025277</v>
+        <v>0.03183582746338705</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>175</v>
+      </c>
+      <c r="J66" t="n">
+        <v>355</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3096875776.195956</v>
+        <v>3458292566.158168</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06608281752963109</v>
+        <v>0.08880145721553523</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03430977937107724</v>
+        <v>0.04729928603975683</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4848047033.276811</v>
+        <v>3901362580.088129</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1210649289012881</v>
+        <v>0.1414971044467457</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0489448965970949</v>
+        <v>0.03643497865200356</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>193</v>
+      </c>
+      <c r="J68" t="n">
+        <v>354</v>
+      </c>
+      <c r="K68" t="n">
+        <v>62.77649087010121</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2456901615.476108</v>
+        <v>1603830415.815695</v>
       </c>
       <c r="F69" t="n">
-        <v>0.14261052117592</v>
+        <v>0.1275634149688323</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03898036499987267</v>
+        <v>0.05299227974385342</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3708573479.546907</v>
+        <v>2735088995.231512</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08788678536581342</v>
+        <v>0.08816088257694697</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0464344590847619</v>
+        <v>0.02996016432455557</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2942,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5489124279.702104</v>
+        <v>4562445554.322353</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510890507857423</v>
+        <v>0.1547768429181821</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03059595479230964</v>
+        <v>0.0273783121227587</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>258</v>
+      </c>
+      <c r="J71" t="n">
+        <v>355</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1996682158.891485</v>
+        <v>1490125617.617487</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0785847953944168</v>
+        <v>0.104051315406983</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04662672289563421</v>
+        <v>0.03358677563259066</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3055766491.456396</v>
+        <v>2554341187.337208</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07815582950006443</v>
+        <v>0.1041245916898895</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0489229570167099</v>
+        <v>0.05110468422788876</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3213114486.217679</v>
+        <v>2610005786.323059</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1675069644649163</v>
+        <v>0.1563860525328495</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02666051769456963</v>
+        <v>0.0229392475389298</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>97</v>
+      </c>
+      <c r="J74" t="n">
+        <v>353</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1697945305.621712</v>
+        <v>1994212902.704604</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1351913510282266</v>
+        <v>0.1521274038331683</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02799172115150425</v>
+        <v>0.02596434755191949</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3535833653.564906</v>
+        <v>4223180315.90498</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08750183105835241</v>
+        <v>0.1025525506004928</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03201389666777323</v>
+        <v>0.02662350003232989</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>168</v>
+      </c>
+      <c r="J76" t="n">
+        <v>354</v>
+      </c>
+      <c r="K76" t="n">
+        <v>60.41167179833479</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1593753160.943844</v>
+        <v>1632422153.25986</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1295877202730742</v>
+        <v>0.1738255465879442</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02866822508012179</v>
+        <v>0.02926728681853542</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3575386146.092611</v>
+        <v>4592335868.143849</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1291455395133339</v>
+        <v>0.1289245747888</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05165456247114961</v>
+        <v>0.05278749373689996</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>177</v>
+      </c>
+      <c r="J78" t="n">
+        <v>354</v>
+      </c>
+      <c r="K78" t="n">
+        <v>63.11415562182921</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1171425508.93478</v>
+        <v>1865547042.353354</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1596021321298938</v>
+        <v>0.1618215470757597</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03241944167827399</v>
+        <v>0.03580164530584311</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4866566286.654656</v>
+        <v>4164091203.546118</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09285010406184155</v>
+        <v>0.0707380286656641</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03226451801991616</v>
+        <v>0.03469754481375029</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>173</v>
+      </c>
+      <c r="J80" t="n">
+        <v>355</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3381625625.879666</v>
+        <v>4240286375.791659</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1239391106922305</v>
+        <v>0.1340607292450991</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02993833327560118</v>
+        <v>0.02469921409632867</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>164</v>
+      </c>
+      <c r="J81" t="n">
+        <v>354</v>
+      </c>
+      <c r="K81" t="n">
+        <v>58.49953632401412</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5524144286.250051</v>
+        <v>4003276248.867175</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1933293769808658</v>
+        <v>0.153717517471244</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02853247135697537</v>
+        <v>0.02197125530810476</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>251</v>
+      </c>
+      <c r="J82" t="n">
+        <v>354</v>
+      </c>
+      <c r="K82" t="n">
+        <v>60.66424330038963</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1964868276.602927</v>
+        <v>2220958970.374504</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0986142304534041</v>
+        <v>0.1537199960401455</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03415283795616814</v>
+        <v>0.03507045886896002</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2474540770.843987</v>
+        <v>2296782955.208306</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07748936693866679</v>
+        <v>0.1100386963923853</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03920320242823811</v>
+        <v>0.03239742130518653</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2518340583.104028</v>
+        <v>3441114057.981086</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1554836376823821</v>
+        <v>0.181771684674681</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05153176222405987</v>
+        <v>0.04036282195015022</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2488051409.985414</v>
+        <v>2246474106.799824</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1077942307568377</v>
+        <v>0.1616779726858026</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02519508605996695</v>
+        <v>0.02689994572206602</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>961307751.4351023</v>
+        <v>1341233138.001655</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1866570703285127</v>
+        <v>0.1766194728611221</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02671189347075285</v>
+        <v>0.03862717331351163</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2412559905.544952</v>
+        <v>2916609667.009685</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1721502564051453</v>
+        <v>0.111561238023252</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02408828135541374</v>
+        <v>0.03730446777337999</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2670779354.788315</v>
+        <v>2631544101.206095</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1255368179699508</v>
+        <v>0.1536581822873387</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03573694565707525</v>
+        <v>0.03659812534495768</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1973773597.555872</v>
+        <v>1920451152.288906</v>
       </c>
       <c r="F90" t="n">
-        <v>0.126579592372223</v>
+        <v>0.1187473915689921</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04890470289388345</v>
+        <v>0.04948499992771267</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1718979301.751578</v>
+        <v>1591796203.63491</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1723417957944896</v>
+        <v>0.194154657796456</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06070177805752194</v>
+        <v>0.04228672524892755</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1960905036.014824</v>
+        <v>2014525823.43626</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06689426530287242</v>
+        <v>0.08988188073928084</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02876634505913591</v>
+        <v>0.03177365100806537</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3113646690.274527</v>
+        <v>3371599741.856903</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1194217816181056</v>
+        <v>0.1342975109660668</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04858175606931316</v>
+        <v>0.04726717521480341</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>165</v>
+      </c>
+      <c r="J93" t="n">
+        <v>354</v>
+      </c>
+      <c r="K93" t="n">
+        <v>52.23291684033088</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1664327334.399845</v>
+        <v>1797916700.524908</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1673647293890848</v>
+        <v>0.1231261179433645</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02742537236918655</v>
+        <v>0.04087098471036515</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3133357427.120456</v>
+        <v>2644736341.934475</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1205989448876137</v>
+        <v>0.09561720007363837</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04117055341227617</v>
+        <v>0.03690503809564417</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2401883106.173402</v>
+        <v>1853419313.362309</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09176159787777223</v>
+        <v>0.1134398981219665</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04424922616706586</v>
+        <v>0.04700153817714676</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3543605157.996173</v>
+        <v>4802461048.874696</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1271161971003718</v>
+        <v>0.126893387500071</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02031302796796628</v>
+        <v>0.01926629083828798</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>183</v>
+      </c>
+      <c r="J97" t="n">
+        <v>355</v>
+      </c>
+      <c r="K97" t="n">
+        <v>63.81005185169747</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3254136451.208742</v>
+        <v>2798145126.287602</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09896891483700032</v>
+        <v>0.1150859166796799</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02682360351481228</v>
+        <v>0.0288344226157954</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2262702733.190871</v>
+        <v>2594774282.264991</v>
       </c>
       <c r="F99" t="n">
-        <v>0.139399163228039</v>
+        <v>0.1109317956705174</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02387784686239509</v>
+        <v>0.02606634056917647</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4173335950.673562</v>
+        <v>3616824532.608118</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1379124998526385</v>
+        <v>0.1668656577887148</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01899056654795508</v>
+        <v>0.02090863395932005</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>161</v>
+      </c>
+      <c r="J100" t="n">
+        <v>354</v>
+      </c>
+      <c r="K100" t="n">
+        <v>57.81230613161349</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2646041687.790945</v>
+        <v>2451264117.650588</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1564744525668197</v>
+        <v>0.1859974538883435</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05314671278669201</v>
+        <v>0.03783982711289331</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
